--- a/data/QC/质控组仪表盘9-3.xlsx
+++ b/data/QC/质控组仪表盘9-3.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="950" yWindow="0" windowWidth="18250" windowHeight="7600"/>
+    <workbookView xWindow="945" yWindow="0" windowWidth="18255" windowHeight="7605" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179021" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="44">
   <si>
     <t>组别</t>
   </si>
@@ -86,9 +86,6 @@
     <t>48h通过率标线</t>
   </si>
   <si>
-    <t>质控组</t>
-  </si>
-  <si>
     <t>总体</t>
   </si>
   <si>
@@ -135,12 +132,6 @@
   </si>
   <si>
     <t>下单错误数</t>
-  </si>
-  <si>
-    <t>张悦</t>
-  </si>
-  <si>
-    <t>卢楠</t>
   </si>
   <si>
     <t>冷雪</t>
@@ -154,6 +145,9 @@
   <si>
     <t>9-3</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京组</t>
   </si>
 </sst>
 </file>
@@ -520,28 +514,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,152 +546,152 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>31</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>32</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>34</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>37</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>38</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>39</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3">
+        <v>115</v>
+      </c>
+      <c r="E2" s="3">
+        <v>103</v>
+      </c>
+      <c r="F2" s="3">
+        <v>115</v>
+      </c>
+      <c r="G2" s="2">
+        <v>414</v>
+      </c>
+      <c r="H2" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="I2" s="3">
+        <v>92</v>
+      </c>
+      <c r="J2" s="3">
+        <v>93</v>
+      </c>
+      <c r="K2" s="3">
+        <v>86</v>
+      </c>
+      <c r="L2" s="3">
+        <v>91</v>
+      </c>
+      <c r="M2" s="3">
+        <v>60</v>
+      </c>
+      <c r="N2" s="3">
+        <v>60</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="D3" s="3">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E3" s="3">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
+        <v>21</v>
+      </c>
+      <c r="G3" s="2">
+        <v>76.23</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3.92</v>
       </c>
       <c r="I3" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J3" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K3" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3" s="3">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="M3" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="O3" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3" s="3">
         <v>0</v>
@@ -706,118 +700,6 @@
         <v>0</v>
       </c>
       <c r="R3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="3">
-        <v>115</v>
-      </c>
-      <c r="E4" s="3">
-        <v>103</v>
-      </c>
-      <c r="F4" s="3">
-        <v>115</v>
-      </c>
-      <c r="G4" s="2">
-        <v>414</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3.83</v>
-      </c>
-      <c r="I4" s="3">
-        <v>92</v>
-      </c>
-      <c r="J4" s="3">
-        <v>93</v>
-      </c>
-      <c r="K4" s="3">
-        <v>86</v>
-      </c>
-      <c r="L4" s="3">
-        <v>91</v>
-      </c>
-      <c r="M4" s="3">
-        <v>60</v>
-      </c>
-      <c r="N4" s="3">
-        <v>60</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
-        <v>19</v>
-      </c>
-      <c r="F5" s="3">
-        <v>21</v>
-      </c>
-      <c r="G5" s="2">
-        <v>76.23</v>
-      </c>
-      <c r="H5" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="I5" s="3">
-        <v>17</v>
-      </c>
-      <c r="J5" s="3">
-        <v>17</v>
-      </c>
-      <c r="K5" s="3">
-        <v>15</v>
-      </c>
-      <c r="L5" s="3">
-        <v>17</v>
-      </c>
-      <c r="M5" s="3">
-        <v>39</v>
-      </c>
-      <c r="N5" s="3">
-        <v>39</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
         <v>0</v>
       </c>
     </row>
@@ -832,32 +714,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="17.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="20" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,15 +810,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D2" s="3">
         <v>29</v>
